--- a/biology/Médecine/Dysglobulinémie_monoclonale/Dysglobulinémie_monoclonale.xlsx
+++ b/biology/Médecine/Dysglobulinémie_monoclonale/Dysglobulinémie_monoclonale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
+          <t>Dysglobulinémie_monoclonale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gammapathie monoclonale, ou dysglobulinémie monoclonale, désigne une anomalie traduite par une quantité anormale dans le sérum et/ou les urines d'une immunoglobuline monoclonale en excès.
 Chez un sujet normal, le taux des différentes classes d’immunoglobulines sont stables grâce à une régulation de leur production. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
+          <t>Dysglobulinémie_monoclonale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Fréquence et terrain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette anomalie est retrouvée dans près de 3 % de la population de plus de 50 ans dans une étude américaine. Elle atteint plus de 5 % des patients de plus de 70 ans. Elle est plus fréquente chez l'homme. L'immunoglobuline concernée est le plus souvent de type IgG (69 %)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette anomalie est retrouvée dans près de 3 % de la population de plus de 50 ans dans une étude américaine. Elle atteint plus de 5 % des patients de plus de 70 ans. Elle est plus fréquente chez l'homme. L'immunoglobuline concernée est le plus souvent de type IgG (69 %).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
+          <t>Dysglobulinémie_monoclonale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Immunopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre des cancers, la gammapathie monoclonale est une production homogène d'une gammaglobuline d'un seul type par un clone de plasmocytes malins.
 La gammapathie exprime la production exagérée d'une substance qui se retrouve dans le sang comme un marqueur tumoral reflétant le volume des cellules cancéreuses et permettant de le surveiller pendant le traitement.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
+          <t>Dysglobulinémie_monoclonale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est suspecté devant une VS accélérée sans syndrome infectieux évident ou une augmentation du taux global des protéines plasmatiques.
 Le diagnostic est fait devant un pic étroit et symétrique à l'électrophorèse des protéines plasmatiques.  
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
+          <t>Dysglobulinémie_monoclonale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,14 +633,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dysglobulinémie monoclonale maligne
-Les principales gammapathies monoclonales malignes sont :
+          <t>Dysglobulinémie monoclonale maligne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les principales gammapathies monoclonales malignes sont :
 le myélome multiple (à immuno-globulines G et A) ;
 macroglobulinémie de Waldenström, dite maladie de Waldenström (à immunoglobulines M) ;
 lymphomes malins (leucémie lymphoïde chronique, lymphomes non-hodgkiniens) ;
-maladie des chaînes lourdes.
-Dysglobulinémie monoclonale non maligne
-Une gammapathie monoclonale peut être retrouvée lors de certaines affections :
+maladie des chaînes lourdes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dysglobulinémie_monoclonale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysglobulin%C3%A9mie_monoclonale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dysglobulinémie monoclonale non maligne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une gammapathie monoclonale peut être retrouvée lors de certaines affections :
 cirrhoses ;
 inflammation chronique ;
 maladies auto-immunes.
@@ -631,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dysglobulin%C3%A9mie_monoclonale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dysglobulinémie_monoclonale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dysglobulin%C3%A9mie_monoclonale</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie sera d'autant plus grave pour les malades âgés ou jeunes.
 Toutes les gammapathies monoclonales peuvent se compliquer d'amylose immunoglobulinique.
